--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE-CEP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE-CEP.XLSX
@@ -115,24 +115,18 @@
     <t>IE-CEP</t>
   </si>
   <si>
-    <t>ELIZONIR B DOS SANTOS</t>
-  </si>
-  <si>
-    <t>1698</t>
-  </si>
-  <si>
     <t>GERSON MOREIRA</t>
   </si>
   <si>
     <t>2509</t>
   </si>
   <si>
+    <t>ROMILDO DA ROSA SANTOS</t>
+  </si>
+  <si>
     <t>2689</t>
   </si>
   <si>
-    <t>2813</t>
-  </si>
-  <si>
     <t>2981</t>
   </si>
   <si>
@@ -184,21 +178,6 @@
     <t>3719</t>
   </si>
   <si>
-    <t>4139</t>
-  </si>
-  <si>
-    <t>4159</t>
-  </si>
-  <si>
-    <t>4161</t>
-  </si>
-  <si>
-    <t>4164</t>
-  </si>
-  <si>
-    <t>4173</t>
-  </si>
-  <si>
     <t> </t>
   </si>
   <si>
@@ -211,10 +190,25 @@
     <t> </t>
   </si>
   <si>
-    <t>ROMILDO DA ROSA SANTOS</t>
-  </si>
-  <si>
-    <t>PAULO HENRIQUE DE ALMEIDA</t>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>ALEX LEANDRO F DE ABREU</t>
@@ -268,19 +262,25 @@
     <t>FELIPE DE OLIVEIRA MARCIANO</t>
   </si>
   <si>
-    <t>ANGELO ESTEVES DA SILVA</t>
-  </si>
-  <si>
-    <t>PRISCILA SILVA DE SOUZA</t>
-  </si>
-  <si>
-    <t>PEDRO CRUZ DA SILVA</t>
-  </si>
-  <si>
-    <t>LARISSA FORTUNA DA SILVA</t>
-  </si>
-  <si>
-    <t>TAYNA ARAUJO PINTO</t>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
